--- a/Relatório/Tabelas relatório.xlsx
+++ b/Relatório/Tabelas relatório.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ocorrências</t>
   </si>
@@ -24,15 +24,6 @@
     <t>Localização</t>
   </si>
   <si>
-    <t>Quantidade por localização</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
     <t>Diagonal média</t>
   </si>
   <si>
@@ -46,6 +37,24 @@
   </si>
   <si>
     <t>Total geral:</t>
+  </si>
+  <si>
+    <t>Quantidade de grupos de 4</t>
+  </si>
+  <si>
+    <t>Linha</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Espaços em branco</t>
+  </si>
+  <si>
+    <t>Fichas do jogador max</t>
+  </si>
+  <si>
+    <t>Valor do grupo de 4</t>
   </si>
 </sst>
 </file>
@@ -111,11 +120,23 @@
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Localização"/>
-    <tableColumn id="2" name="Quantidade por localização"/>
+    <tableColumn id="2" name="Quantidade de grupos de 4"/>
     <tableColumn id="3" name="Ocorrências"/>
     <tableColumn id="4" name="Total">
       <calculatedColumnFormula>C2*B2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="F13:H17" totalsRowShown="0">
+  <autoFilter ref="F13:H17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Fichas do jogador max"/>
+    <tableColumn id="2" name="Espaços em branco"/>
+    <tableColumn id="3" name="Valor do grupo de 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -408,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,25 +440,28 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -450,9 +474,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -465,9 +489,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -480,9 +504,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -495,9 +519,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -510,20 +534,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D2:D6)</f>
         <v>69</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
